--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_22.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_22.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_9</t>
+          <t>model_1_22_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998293473910713</v>
+        <v>0.9321460648914491</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8287105405841786</v>
+        <v>0.7527689254593475</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8185701174708483</v>
+        <v>0.7029956650897301</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9996202020193665</v>
+        <v>0.9214658649314847</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0007103460405496353</v>
+        <v>0.2824438163744974</v>
       </c>
       <c r="G2" t="n">
-        <v>1.145413403829036</v>
+        <v>1.653235333847766</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6489641698977504</v>
+        <v>1.062367284673223</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002688028561574095</v>
+        <v>0.2920112252155521</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06542468862906678</v>
+        <v>1.353376275620037</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02665231773316601</v>
+        <v>0.5314544348996416</v>
       </c>
       <c r="L2" t="n">
-        <v>1.010921766971435</v>
+        <v>0.9076031521926116</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02707206509492011</v>
+        <v>0.5398243109897817</v>
       </c>
       <c r="N2" t="n">
-        <v>144.4995166512093</v>
+        <v>36.52855125653037</v>
       </c>
       <c r="O2" t="n">
-        <v>285.8346891944257</v>
+        <v>73.49313484475618</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_8</t>
+          <t>model_1_22_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998577123026174</v>
+        <v>0.9321256475303473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8286783894039056</v>
+        <v>0.7524695068873488</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8185932270955077</v>
+        <v>0.7035128332418288</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997243675407875</v>
+        <v>0.9199831555815701</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000592276338985987</v>
+        <v>0.2825288041851626</v>
       </c>
       <c r="G3" t="n">
-        <v>1.145628398919564</v>
+        <v>1.655237547217417</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6488815081103166</v>
+        <v>1.060517404180298</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001950794792600547</v>
+        <v>0.2975243409266936</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06382622938727099</v>
+        <v>1.34602509557577</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02433672818983659</v>
+        <v>0.5315343866441404</v>
       </c>
       <c r="L3" t="n">
-        <v>1.009106412632484</v>
+        <v>0.907575349828558</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02472000733102358</v>
+        <v>0.5399055218943341</v>
       </c>
       <c r="N3" t="n">
-        <v>144.8630744863292</v>
+        <v>36.52794954375199</v>
       </c>
       <c r="O3" t="n">
-        <v>286.1982470295456</v>
+        <v>73.49253313197781</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_7</t>
+          <t>model_1_22_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998674674812822</v>
+        <v>0.9321005994133146</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8285880475943905</v>
+        <v>0.7522465349350296</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8187068848250862</v>
+        <v>0.7038693740019413</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999753534325214</v>
+        <v>0.9188870082615229</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0005516701473615116</v>
+        <v>0.2826330676410169</v>
       </c>
       <c r="G4" t="n">
-        <v>1.146232515015777</v>
+        <v>1.656728561689266</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6484749610018681</v>
+        <v>1.059242078554797</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00174436623430025</v>
+        <v>0.3016001141132761</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06211602992316829</v>
+        <v>1.340668524846168</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02348765946963451</v>
+        <v>0.5316324554060041</v>
       </c>
       <c r="L4" t="n">
-        <v>1.00848208119794</v>
+        <v>0.9075412417543007</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02385756662723565</v>
+        <v>0.5400051351411641</v>
       </c>
       <c r="N4" t="n">
-        <v>145.005120498849</v>
+        <v>36.52721160680164</v>
       </c>
       <c r="O4" t="n">
-        <v>286.3402930420654</v>
+        <v>73.49179519502746</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_6</t>
+          <t>model_1_22_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998706698943349</v>
+        <v>0.9318384967119981</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8285751850273942</v>
+        <v>0.7507082325141242</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8187023494448906</v>
+        <v>0.7054726403247319</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997630366324045</v>
+        <v>0.9129547932347463</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005383400175349003</v>
+        <v>0.2837240771325582</v>
       </c>
       <c r="G5" t="n">
-        <v>1.146318527060508</v>
+        <v>1.667015197061092</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6484911837938516</v>
+        <v>1.053507287880898</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001677113446156432</v>
+        <v>0.3236576993492995</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06119094258367916</v>
+        <v>1.312544421549157</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02320215545019256</v>
+        <v>0.5326575608517711</v>
       </c>
       <c r="L5" t="n">
-        <v>1.008277126762565</v>
+        <v>0.9071843359482528</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0235675662048868</v>
+        <v>0.5410463849729725</v>
       </c>
       <c r="N5" t="n">
-        <v>145.0540403891584</v>
+        <v>36.51950614496615</v>
       </c>
       <c r="O5" t="n">
-        <v>286.3892129323748</v>
+        <v>73.48408973319196</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_5</t>
+          <t>model_1_22_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998718827488753</v>
+        <v>0.9317973647746983</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8285673271805619</v>
+        <v>0.7505678963423088</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8187111294599771</v>
+        <v>0.7056229582094053</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997692255421889</v>
+        <v>0.9122893577313584</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0005332914781312411</v>
+        <v>0.2838952899196613</v>
       </c>
       <c r="G6" t="n">
-        <v>1.146371072518458</v>
+        <v>1.667953625688211</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6484597781889816</v>
+        <v>1.052969609523353</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001633311301032091</v>
+        <v>0.3261319691235407</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06109864074932567</v>
+        <v>1.309463458179571</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02309310455809788</v>
+        <v>0.5328182522395993</v>
       </c>
       <c r="L6" t="n">
-        <v>1.008199504071982</v>
+        <v>0.9071283265017168</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02345679787025253</v>
+        <v>0.5412096070895266</v>
       </c>
       <c r="N6" t="n">
-        <v>145.0728848399761</v>
+        <v>36.51829961254507</v>
       </c>
       <c r="O6" t="n">
-        <v>286.4080573831924</v>
+        <v>73.48288320077089</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_2</t>
+          <t>model_1_22_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999027352376963</v>
+        <v>0.9316877835842063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8285146640233541</v>
+        <v>0.7502031812251673</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8187341226595665</v>
+        <v>0.7059690518733758</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998980710883656</v>
+        <v>0.9106565217703092</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0004048671697500294</v>
+        <v>0.2843514245505547</v>
       </c>
       <c r="G7" t="n">
-        <v>1.146723231293198</v>
+        <v>1.670392477355895</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6483775328472726</v>
+        <v>1.051731652554994</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0007214041140146136</v>
+        <v>0.332203296313253</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05685180078211041</v>
+        <v>1.301956784560532</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02012131133276431</v>
+        <v>0.5332461200520401</v>
       </c>
       <c r="L7" t="n">
-        <v>1.006224944787434</v>
+        <v>0.9069791095614724</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0204382018723233</v>
+        <v>0.5416442133923024</v>
       </c>
       <c r="N7" t="n">
-        <v>145.6239030411589</v>
+        <v>36.51508879078582</v>
       </c>
       <c r="O7" t="n">
-        <v>286.9590755843753</v>
+        <v>73.47967237901163</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_4</t>
+          <t>model_1_22_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998804385559736</v>
+        <v>0.9313159024218234</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8285025630383427</v>
+        <v>0.7492882490946139</v>
       </c>
       <c r="D8" t="n">
-        <v>0.818902137696481</v>
+        <v>0.7067998133018114</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999814939340517</v>
+        <v>0.90602154273751</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0004976777026715295</v>
+        <v>0.2858993898170231</v>
       </c>
       <c r="G8" t="n">
-        <v>1.146804150635689</v>
+        <v>1.67651063272578</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6477765528023011</v>
+        <v>1.048760067095796</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001309770887892474</v>
+        <v>0.3494374061055781</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06104630863183167</v>
+        <v>1.281393508467822</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02230869119136148</v>
+        <v>0.5346956048229901</v>
       </c>
       <c r="L8" t="n">
-        <v>1.007651932417687</v>
+        <v>0.9064727181914191</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02266003077711573</v>
+        <v>0.5431165260994416</v>
       </c>
       <c r="N8" t="n">
-        <v>145.2111157476874</v>
+        <v>36.50423062781861</v>
       </c>
       <c r="O8" t="n">
-        <v>286.5462882909038</v>
+        <v>73.46881421604442</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_1</t>
+          <t>model_1_22_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999027787463846</v>
+        <v>0.9312894873801634</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8284975042240905</v>
+        <v>0.7492161074629901</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8187437070792705</v>
+        <v>0.7068459121678117</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999024316531061</v>
+        <v>0.9057265400040493</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0004046860636738264</v>
+        <v>0.2860093431331308</v>
       </c>
       <c r="G9" t="n">
-        <v>1.146837978949887</v>
+        <v>1.67699304414863</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6483432499337283</v>
+        <v>1.048595174125078</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0006905421211528819</v>
+        <v>0.3505343063205564</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05675097085087575</v>
+        <v>1.280118595917248</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02011681047467084</v>
+        <v>0.5347984135476944</v>
       </c>
       <c r="L9" t="n">
-        <v>1.006222160231388</v>
+        <v>0.9064367487729884</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02043363013021407</v>
+        <v>0.5432209539587891</v>
       </c>
       <c r="N9" t="n">
-        <v>145.6247978857312</v>
+        <v>36.50346160079644</v>
       </c>
       <c r="O9" t="n">
-        <v>286.9599704289476</v>
+        <v>73.46804518902226</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_3</t>
+          <t>model_1_22_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998833490117284</v>
+        <v>0.9312629089993222</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8284868104669953</v>
+        <v>0.7491700111315576</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8189249320815445</v>
+        <v>0.706890842054698</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998260218105688</v>
+        <v>0.9054332063574677</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0004855628528926007</v>
+        <v>0.2861199763529408</v>
       </c>
       <c r="G10" t="n">
-        <v>1.146909488152823</v>
+        <v>1.677301290529174</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6476950186086232</v>
+        <v>1.04843446252487</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001231334462342658</v>
+        <v>0.3516250004175949</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06107060796054172</v>
+        <v>1.278853103848707</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02203549075679053</v>
+        <v>0.5349018380534328</v>
       </c>
       <c r="L10" t="n">
-        <v>1.007465663249384</v>
+        <v>0.9064005569352472</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02238252770880052</v>
+        <v>0.5433260072971062</v>
       </c>
       <c r="N10" t="n">
-        <v>145.2604036369664</v>
+        <v>36.50268811677861</v>
       </c>
       <c r="O10" t="n">
-        <v>286.5955761801828</v>
+        <v>73.46727170500444</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_0</t>
+          <t>model_1_22_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999051717706761</v>
+        <v>0.9312362197867601</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8284718158303028</v>
+        <v>0.7491006485287411</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8188383854887198</v>
+        <v>0.7069349408452498</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999147650174106</v>
+        <v>0.905141633245039</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0003947250361744052</v>
+        <v>0.2862310709127482</v>
       </c>
       <c r="G11" t="n">
-        <v>1.147009757357429</v>
+        <v>1.677765118573593</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6480045907528977</v>
+        <v>1.048276723708061</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000603252464016224</v>
+        <v>0.3527091483709138</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05566208800415805</v>
+        <v>1.277593739635905</v>
       </c>
       <c r="K11" t="n">
-        <v>0.019867688244343</v>
+        <v>0.5350056737201468</v>
       </c>
       <c r="L11" t="n">
-        <v>1.006069006676732</v>
+        <v>0.9063642141777158</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02018058447378944</v>
+        <v>0.5434314782717734</v>
       </c>
       <c r="N11" t="n">
-        <v>145.6746422928235</v>
+        <v>36.50191170823191</v>
       </c>
       <c r="O11" t="n">
-        <v>287.0098148360399</v>
+        <v>73.46649529645774</v>
       </c>
     </row>
   </sheetData>
